--- a/Table-of-contents.xlsx
+++ b/Table-of-contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 git\2020-april-python-misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC1CF4-8955-4DF7-BE2B-4111A877A37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF21BAC-680E-4290-8D24-2ABB89CD901A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Serial</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>2020-04\assets</t>
+  </si>
+  <si>
+    <t>2020-04-25-02.jpeg</t>
+  </si>
+  <si>
+    <t>2020-04-25-02.py</t>
+  </si>
+  <si>
+    <t>2020-04-25-03.jpeg</t>
+  </si>
+  <si>
+    <t>2020-04-25-03.py</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,10 +498,52 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -738,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1A2CEE-8A34-43DE-8BE6-4ADC5DA3E499}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,12 +804,11 @@
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Table1[[#Headers],[Serial]]</f>
         <v>Serial</v>
@@ -773,19 +826,15 @@
         <v>Problem Statement</v>
       </c>
       <c r="E1" t="str">
-        <f>Table1[[#Headers],[folder-code]]</f>
-        <v>folder-code</v>
-      </c>
-      <c r="F1" t="str">
         <f>Table1[[#Headers],[Problem Solution]]</f>
         <v>Problem Solution</v>
       </c>
-      <c r="G1" t="str">
+      <c r="F1" t="str">
         <f>Table1[[#Headers],[Problem Assets]]</f>
         <v>Problem Assets</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>'back-end'!A2</f>
         <v>1</v>
@@ -803,79 +852,67 @@
         <v>2020-04\assets\2020-04-25-01.jpeg</v>
       </c>
       <c r="E2" t="str">
-        <f>'back-end'!F2</f>
-        <v>2020-04\assets</v>
-      </c>
-      <c r="F2" t="str">
         <f>'back-end'!F2 &amp; 'back-end'!G2</f>
         <v>2020-04\assets2020-04-25-01.py</v>
       </c>
-      <c r="G2" t="str">
+      <c r="F2" t="str">
         <f>'back-end'!H2</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>'back-end'!A3</f>
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <f>'back-end'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
+        <v>WhatsApp Group</v>
+      </c>
+      <c r="C3" t="str">
         <f>'back-end'!C3</f>
-        <v>0</v>
+        <v>Coding Club India :IET</v>
       </c>
       <c r="D3" t="str">
         <f>'back-end'!D3&amp;'back-end'!E3</f>
-        <v/>
-      </c>
-      <c r="E3">
-        <f>'back-end'!F3</f>
-        <v>0</v>
+        <v>2020-04\assets\2020-04-25-02.jpeg</v>
+      </c>
+      <c r="E3" t="str">
+        <f>'back-end'!F3 &amp; 'back-end'!G3</f>
+        <v>2020-04\assets2020-04-25-02.py</v>
       </c>
       <c r="F3" t="str">
-        <f>'back-end'!F3 &amp; 'back-end'!G3</f>
-        <v/>
-      </c>
-      <c r="G3">
         <f>'back-end'!H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>'back-end'!A4</f>
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <f>'back-end'!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>WhatsApp Group</v>
+      </c>
+      <c r="C4" t="str">
         <f>'back-end'!C4</f>
-        <v>0</v>
+        <v>Coding Club India :IET</v>
       </c>
       <c r="D4" t="str">
         <f>'back-end'!D4&amp;'back-end'!E4</f>
-        <v/>
-      </c>
-      <c r="E4">
-        <f>'back-end'!F4</f>
-        <v>0</v>
+        <v>2020-04\assets\2020-04-25-03.jpeg</v>
+      </c>
+      <c r="E4" t="str">
+        <f>'back-end'!F4 &amp; 'back-end'!G4</f>
+        <v>2020-04\assets2020-04-25-03.py</v>
       </c>
       <c r="F4" t="str">
-        <f>'back-end'!F4 &amp; 'back-end'!G4</f>
-        <v/>
-      </c>
-      <c r="G4">
         <f>'back-end'!H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>'back-end'!A5</f>
         <v>4</v>
@@ -892,20 +929,16 @@
         <f>'back-end'!D5&amp;'back-end'!E5</f>
         <v/>
       </c>
-      <c r="E5">
-        <f>'back-end'!F5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E5" t="str">
         <f>'back-end'!F5 &amp; 'back-end'!G5</f>
         <v/>
       </c>
-      <c r="G5">
+      <c r="F5">
         <f>'back-end'!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>'back-end'!A6</f>
         <v>5</v>
@@ -922,20 +955,16 @@
         <f>'back-end'!D6&amp;'back-end'!E6</f>
         <v/>
       </c>
-      <c r="E6">
-        <f>'back-end'!F6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="E6" t="str">
         <f>'back-end'!F6 &amp; 'back-end'!G6</f>
         <v/>
       </c>
-      <c r="G6">
+      <c r="F6">
         <f>'back-end'!H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'back-end'!A7</f>
         <v>6</v>
@@ -952,20 +981,16 @@
         <f>'back-end'!D7&amp;'back-end'!E7</f>
         <v/>
       </c>
-      <c r="E7">
-        <f>'back-end'!F7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="E7" t="str">
         <f>'back-end'!F7 &amp; 'back-end'!G7</f>
         <v/>
       </c>
-      <c r="G7">
+      <c r="F7">
         <f>'back-end'!H7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'back-end'!A8</f>
         <v>7</v>
@@ -982,20 +1007,16 @@
         <f>'back-end'!D8&amp;'back-end'!E8</f>
         <v/>
       </c>
-      <c r="E8">
-        <f>'back-end'!F8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="E8" t="str">
         <f>'back-end'!F8 &amp; 'back-end'!G8</f>
         <v/>
       </c>
-      <c r="G8">
+      <c r="F8">
         <f>'back-end'!H8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'back-end'!A9</f>
         <v>8</v>
@@ -1012,20 +1033,16 @@
         <f>'back-end'!D9&amp;'back-end'!E9</f>
         <v/>
       </c>
-      <c r="E9">
-        <f>'back-end'!F9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="E9" t="str">
         <f>'back-end'!F9 &amp; 'back-end'!G9</f>
         <v/>
       </c>
-      <c r="G9">
+      <c r="F9">
         <f>'back-end'!H9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'back-end'!A10</f>
         <v>9</v>
@@ -1042,20 +1059,16 @@
         <f>'back-end'!D10&amp;'back-end'!E10</f>
         <v/>
       </c>
-      <c r="E10">
-        <f>'back-end'!F10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="E10" t="str">
         <f>'back-end'!F10 &amp; 'back-end'!G10</f>
         <v/>
       </c>
-      <c r="G10">
+      <c r="F10">
         <f>'back-end'!H10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>'back-end'!A11</f>
         <v>10</v>
@@ -1072,20 +1085,16 @@
         <f>'back-end'!D11&amp;'back-end'!E11</f>
         <v/>
       </c>
-      <c r="E11">
-        <f>'back-end'!F11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="E11" t="str">
         <f>'back-end'!F11 &amp; 'back-end'!G11</f>
         <v/>
       </c>
-      <c r="G11">
+      <c r="F11">
         <f>'back-end'!H11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>'back-end'!A12</f>
         <v>11</v>
@@ -1102,20 +1111,16 @@
         <f>'back-end'!D12&amp;'back-end'!E12</f>
         <v/>
       </c>
-      <c r="E12">
-        <f>'back-end'!F12</f>
-        <v>0</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="E12" t="str">
         <f>'back-end'!F12 &amp; 'back-end'!G12</f>
         <v/>
       </c>
-      <c r="G12">
+      <c r="F12">
         <f>'back-end'!H12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>'back-end'!A13</f>
         <v>12</v>
@@ -1132,20 +1137,16 @@
         <f>'back-end'!D13&amp;'back-end'!E13</f>
         <v/>
       </c>
-      <c r="E13">
-        <f>'back-end'!F13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" t="str">
+      <c r="E13" t="str">
         <f>'back-end'!F13 &amp; 'back-end'!G13</f>
         <v/>
       </c>
-      <c r="G13">
+      <c r="F13">
         <f>'back-end'!H13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>'back-end'!A14</f>
         <v>13</v>
@@ -1162,20 +1163,16 @@
         <f>'back-end'!D14&amp;'back-end'!E14</f>
         <v/>
       </c>
-      <c r="E14">
-        <f>'back-end'!F14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E14" t="str">
         <f>'back-end'!F14 &amp; 'back-end'!G14</f>
         <v/>
       </c>
-      <c r="G14">
+      <c r="F14">
         <f>'back-end'!H14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>'back-end'!A15</f>
         <v>14</v>
@@ -1192,20 +1189,16 @@
         <f>'back-end'!D15&amp;'back-end'!E15</f>
         <v/>
       </c>
-      <c r="E15">
-        <f>'back-end'!F15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E15" t="str">
         <f>'back-end'!F15 &amp; 'back-end'!G15</f>
         <v/>
       </c>
-      <c r="G15">
+      <c r="F15">
         <f>'back-end'!H15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>'back-end'!A16</f>
         <v>15</v>
@@ -1222,20 +1215,16 @@
         <f>'back-end'!D16&amp;'back-end'!E16</f>
         <v/>
       </c>
-      <c r="E16">
-        <f>'back-end'!F16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="E16" t="str">
         <f>'back-end'!F16 &amp; 'back-end'!G16</f>
         <v/>
       </c>
-      <c r="G16">
+      <c r="F16">
         <f>'back-end'!H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>'back-end'!A17</f>
         <v>16</v>
@@ -1252,20 +1241,16 @@
         <f>'back-end'!D17&amp;'back-end'!E17</f>
         <v/>
       </c>
-      <c r="E17">
-        <f>'back-end'!F17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E17" t="str">
         <f>'back-end'!F17 &amp; 'back-end'!G17</f>
         <v/>
       </c>
-      <c r="G17">
+      <c r="F17">
         <f>'back-end'!H17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>'back-end'!A18</f>
         <v>17</v>
@@ -1282,20 +1267,16 @@
         <f>'back-end'!D18&amp;'back-end'!E18</f>
         <v/>
       </c>
-      <c r="E18">
-        <f>'back-end'!F18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E18" t="str">
         <f>'back-end'!F18 &amp; 'back-end'!G18</f>
         <v/>
       </c>
-      <c r="G18">
+      <c r="F18">
         <f>'back-end'!H18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>'back-end'!A19</f>
         <v>18</v>
@@ -1312,20 +1293,16 @@
         <f>'back-end'!D19&amp;'back-end'!E19</f>
         <v/>
       </c>
-      <c r="E19">
-        <f>'back-end'!F19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E19" t="str">
         <f>'back-end'!F19 &amp; 'back-end'!G19</f>
         <v/>
       </c>
-      <c r="G19">
+      <c r="F19">
         <f>'back-end'!H19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>'back-end'!A20</f>
         <v>19</v>
@@ -1342,20 +1319,16 @@
         <f>'back-end'!D20&amp;'back-end'!E20</f>
         <v/>
       </c>
-      <c r="E20">
-        <f>'back-end'!F20</f>
-        <v>0</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="E20" t="str">
         <f>'back-end'!F20 &amp; 'back-end'!G20</f>
         <v/>
       </c>
-      <c r="G20">
+      <c r="F20">
         <f>'back-end'!H20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>'back-end'!A21</f>
         <v>20</v>
@@ -1372,20 +1345,16 @@
         <f>'back-end'!D21&amp;'back-end'!E21</f>
         <v/>
       </c>
-      <c r="E21">
-        <f>'back-end'!F21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E21" t="str">
         <f>'back-end'!F21 &amp; 'back-end'!G21</f>
         <v/>
       </c>
-      <c r="G21">
+      <c r="F21">
         <f>'back-end'!H21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>'back-end'!A22</f>
         <v>21</v>
@@ -1402,20 +1371,16 @@
         <f>'back-end'!D22&amp;'back-end'!E22</f>
         <v/>
       </c>
-      <c r="E22">
-        <f>'back-end'!F22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="E22" t="str">
         <f>'back-end'!F22 &amp; 'back-end'!G22</f>
         <v/>
       </c>
-      <c r="G22">
+      <c r="F22">
         <f>'back-end'!H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>'back-end'!A23</f>
         <v>22</v>
@@ -1432,20 +1397,16 @@
         <f>'back-end'!D23&amp;'back-end'!E23</f>
         <v/>
       </c>
-      <c r="E23">
-        <f>'back-end'!F23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E23" t="str">
         <f>'back-end'!F23 &amp; 'back-end'!G23</f>
         <v/>
       </c>
-      <c r="G23">
+      <c r="F23">
         <f>'back-end'!H23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>'back-end'!A24</f>
         <v>23</v>
@@ -1462,20 +1423,16 @@
         <f>'back-end'!D24&amp;'back-end'!E24</f>
         <v/>
       </c>
-      <c r="E24">
-        <f>'back-end'!F24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="E24" t="str">
         <f>'back-end'!F24 &amp; 'back-end'!G24</f>
         <v/>
       </c>
-      <c r="G24">
+      <c r="F24">
         <f>'back-end'!H24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>'back-end'!A25</f>
         <v>24</v>
@@ -1492,20 +1449,16 @@
         <f>'back-end'!D25&amp;'back-end'!E25</f>
         <v/>
       </c>
-      <c r="E25">
-        <f>'back-end'!F25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="E25" t="str">
         <f>'back-end'!F25 &amp; 'back-end'!G25</f>
         <v/>
       </c>
-      <c r="G25">
+      <c r="F25">
         <f>'back-end'!H25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>'back-end'!A26</f>
         <v>25</v>
@@ -1522,20 +1475,16 @@
         <f>'back-end'!D26&amp;'back-end'!E26</f>
         <v/>
       </c>
-      <c r="E26">
-        <f>'back-end'!F26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="E26" t="str">
         <f>'back-end'!F26 &amp; 'back-end'!G26</f>
         <v/>
       </c>
-      <c r="G26">
+      <c r="F26">
         <f>'back-end'!H26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>'back-end'!A27</f>
         <v>26</v>
@@ -1552,20 +1501,16 @@
         <f>'back-end'!D27&amp;'back-end'!E27</f>
         <v/>
       </c>
-      <c r="E27">
-        <f>'back-end'!F27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="E27" t="str">
         <f>'back-end'!F27 &amp; 'back-end'!G27</f>
         <v/>
       </c>
-      <c r="G27">
+      <c r="F27">
         <f>'back-end'!H27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>'back-end'!A28</f>
         <v>27</v>
@@ -1582,20 +1527,16 @@
         <f>'back-end'!D28&amp;'back-end'!E28</f>
         <v/>
       </c>
-      <c r="E28">
-        <f>'back-end'!F28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="E28" t="str">
         <f>'back-end'!F28 &amp; 'back-end'!G28</f>
         <v/>
       </c>
-      <c r="G28">
+      <c r="F28">
         <f>'back-end'!H28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>'back-end'!A29</f>
         <v>28</v>
@@ -1612,20 +1553,16 @@
         <f>'back-end'!D29&amp;'back-end'!E29</f>
         <v/>
       </c>
-      <c r="E29">
-        <f>'back-end'!F29</f>
-        <v>0</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="E29" t="str">
         <f>'back-end'!F29 &amp; 'back-end'!G29</f>
         <v/>
       </c>
-      <c r="G29">
+      <c r="F29">
         <f>'back-end'!H29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>'back-end'!A30</f>
         <v>29</v>
@@ -1642,20 +1579,16 @@
         <f>'back-end'!D30&amp;'back-end'!E30</f>
         <v/>
       </c>
-      <c r="E30">
-        <f>'back-end'!F30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="E30" t="str">
         <f>'back-end'!F30 &amp; 'back-end'!G30</f>
         <v/>
       </c>
-      <c r="G30">
+      <c r="F30">
         <f>'back-end'!H30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>'back-end'!A31</f>
         <v>30</v>
@@ -1672,20 +1605,16 @@
         <f>'back-end'!D31&amp;'back-end'!E31</f>
         <v/>
       </c>
-      <c r="E31">
-        <f>'back-end'!F31</f>
-        <v>0</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="E31" t="str">
         <f>'back-end'!F31 &amp; 'back-end'!G31</f>
         <v/>
       </c>
-      <c r="G31">
+      <c r="F31">
         <f>'back-end'!H31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>'back-end'!A32</f>
         <v>31</v>
@@ -1702,20 +1631,16 @@
         <f>'back-end'!D32&amp;'back-end'!E32</f>
         <v/>
       </c>
-      <c r="E32">
-        <f>'back-end'!F32</f>
-        <v>0</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="E32" t="str">
         <f>'back-end'!F32 &amp; 'back-end'!G32</f>
         <v/>
       </c>
-      <c r="G32">
+      <c r="F32">
         <f>'back-end'!H32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>'back-end'!A33</f>
         <v>32</v>
@@ -1732,20 +1657,16 @@
         <f>'back-end'!D33&amp;'back-end'!E33</f>
         <v/>
       </c>
-      <c r="E33">
-        <f>'back-end'!F33</f>
-        <v>0</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="E33" t="str">
         <f>'back-end'!F33 &amp; 'back-end'!G33</f>
         <v/>
       </c>
-      <c r="G33">
+      <c r="F33">
         <f>'back-end'!H33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>'back-end'!A34</f>
         <v>33</v>
@@ -1762,20 +1683,16 @@
         <f>'back-end'!D34&amp;'back-end'!E34</f>
         <v/>
       </c>
-      <c r="E34">
-        <f>'back-end'!F34</f>
-        <v>0</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="E34" t="str">
         <f>'back-end'!F34 &amp; 'back-end'!G34</f>
         <v/>
       </c>
-      <c r="G34">
+      <c r="F34">
         <f>'back-end'!H34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>'back-end'!A35</f>
         <v>34</v>
@@ -1792,20 +1709,16 @@
         <f>'back-end'!D35&amp;'back-end'!E35</f>
         <v/>
       </c>
-      <c r="E35">
-        <f>'back-end'!F35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="E35" t="str">
         <f>'back-end'!F35 &amp; 'back-end'!G35</f>
         <v/>
       </c>
-      <c r="G35">
+      <c r="F35">
         <f>'back-end'!H35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>'back-end'!A36</f>
         <v>35</v>
@@ -1822,20 +1735,16 @@
         <f>'back-end'!D36&amp;'back-end'!E36</f>
         <v/>
       </c>
-      <c r="E36">
-        <f>'back-end'!F36</f>
-        <v>0</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="E36" t="str">
         <f>'back-end'!F36 &amp; 'back-end'!G36</f>
         <v/>
       </c>
-      <c r="G36">
+      <c r="F36">
         <f>'back-end'!H36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>'back-end'!A37</f>
         <v>36</v>
@@ -1852,20 +1761,16 @@
         <f>'back-end'!D37&amp;'back-end'!E37</f>
         <v/>
       </c>
-      <c r="E37">
-        <f>'back-end'!F37</f>
-        <v>0</v>
-      </c>
-      <c r="F37" t="str">
+      <c r="E37" t="str">
         <f>'back-end'!F37 &amp; 'back-end'!G37</f>
         <v/>
       </c>
-      <c r="G37">
+      <c r="F37">
         <f>'back-end'!H37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>'back-end'!A38</f>
         <v>37</v>
@@ -1882,20 +1787,16 @@
         <f>'back-end'!D38&amp;'back-end'!E38</f>
         <v/>
       </c>
-      <c r="E38">
-        <f>'back-end'!F38</f>
-        <v>0</v>
-      </c>
-      <c r="F38" t="str">
+      <c r="E38" t="str">
         <f>'back-end'!F38 &amp; 'back-end'!G38</f>
         <v/>
       </c>
-      <c r="G38">
+      <c r="F38">
         <f>'back-end'!H38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>'back-end'!A39</f>
         <v>38</v>
@@ -1912,20 +1813,16 @@
         <f>'back-end'!D39&amp;'back-end'!E39</f>
         <v/>
       </c>
-      <c r="E39">
-        <f>'back-end'!F39</f>
-        <v>0</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="E39" t="str">
         <f>'back-end'!F39 &amp; 'back-end'!G39</f>
         <v/>
       </c>
-      <c r="G39">
+      <c r="F39">
         <f>'back-end'!H39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>'back-end'!A40</f>
         <v>39</v>
@@ -1942,20 +1839,16 @@
         <f>'back-end'!D40&amp;'back-end'!E40</f>
         <v/>
       </c>
-      <c r="E40">
-        <f>'back-end'!F40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="E40" t="str">
         <f>'back-end'!F40 &amp; 'back-end'!G40</f>
         <v/>
       </c>
-      <c r="G40">
+      <c r="F40">
         <f>'back-end'!H40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>'back-end'!A41</f>
         <v>40</v>
@@ -1972,20 +1865,16 @@
         <f>'back-end'!D41&amp;'back-end'!E41</f>
         <v/>
       </c>
-      <c r="E41">
-        <f>'back-end'!F41</f>
-        <v>0</v>
-      </c>
-      <c r="F41" t="str">
+      <c r="E41" t="str">
         <f>'back-end'!F41 &amp; 'back-end'!G41</f>
         <v/>
       </c>
-      <c r="G41">
+      <c r="F41">
         <f>'back-end'!H41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>'back-end'!A42</f>
         <v>41</v>
@@ -2002,20 +1891,16 @@
         <f>'back-end'!D42&amp;'back-end'!E42</f>
         <v/>
       </c>
-      <c r="E42">
-        <f>'back-end'!F42</f>
-        <v>0</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E42" t="str">
         <f>'back-end'!F42 &amp; 'back-end'!G42</f>
         <v/>
       </c>
-      <c r="G42">
+      <c r="F42">
         <f>'back-end'!H42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>'back-end'!A43</f>
         <v>42</v>
@@ -2032,20 +1917,16 @@
         <f>'back-end'!D43&amp;'back-end'!E43</f>
         <v/>
       </c>
-      <c r="E43">
-        <f>'back-end'!F43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E43" t="str">
         <f>'back-end'!F43 &amp; 'back-end'!G43</f>
         <v/>
       </c>
-      <c r="G43">
+      <c r="F43">
         <f>'back-end'!H43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>'back-end'!A44</f>
         <v>43</v>
@@ -2062,20 +1943,16 @@
         <f>'back-end'!D44&amp;'back-end'!E44</f>
         <v/>
       </c>
-      <c r="E44">
-        <f>'back-end'!F44</f>
-        <v>0</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E44" t="str">
         <f>'back-end'!F44 &amp; 'back-end'!G44</f>
         <v/>
       </c>
-      <c r="G44">
+      <c r="F44">
         <f>'back-end'!H44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>'back-end'!A45</f>
         <v>44</v>
@@ -2092,20 +1969,16 @@
         <f>'back-end'!D45&amp;'back-end'!E45</f>
         <v/>
       </c>
-      <c r="E45">
-        <f>'back-end'!F45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E45" t="str">
         <f>'back-end'!F45 &amp; 'back-end'!G45</f>
         <v/>
       </c>
-      <c r="G45">
+      <c r="F45">
         <f>'back-end'!H45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>'back-end'!A46</f>
         <v>45</v>
@@ -2122,20 +1995,16 @@
         <f>'back-end'!D46&amp;'back-end'!E46</f>
         <v/>
       </c>
-      <c r="E46">
-        <f>'back-end'!F46</f>
-        <v>0</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="E46" t="str">
         <f>'back-end'!F46 &amp; 'back-end'!G46</f>
         <v/>
       </c>
-      <c r="G46">
+      <c r="F46">
         <f>'back-end'!H46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>'back-end'!A47</f>
         <v>46</v>
@@ -2152,20 +2021,16 @@
         <f>'back-end'!D47&amp;'back-end'!E47</f>
         <v/>
       </c>
-      <c r="E47">
-        <f>'back-end'!F47</f>
-        <v>0</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="E47" t="str">
         <f>'back-end'!F47 &amp; 'back-end'!G47</f>
         <v/>
       </c>
-      <c r="G47">
+      <c r="F47">
         <f>'back-end'!H47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>'back-end'!A48</f>
         <v>47</v>
@@ -2182,20 +2047,16 @@
         <f>'back-end'!D48&amp;'back-end'!E48</f>
         <v/>
       </c>
-      <c r="E48">
-        <f>'back-end'!F48</f>
-        <v>0</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="E48" t="str">
         <f>'back-end'!F48 &amp; 'back-end'!G48</f>
         <v/>
       </c>
-      <c r="G48">
+      <c r="F48">
         <f>'back-end'!H48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>'back-end'!A49</f>
         <v>48</v>
@@ -2212,20 +2073,16 @@
         <f>'back-end'!D49&amp;'back-end'!E49</f>
         <v/>
       </c>
-      <c r="E49">
-        <f>'back-end'!F49</f>
-        <v>0</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="E49" t="str">
         <f>'back-end'!F49 &amp; 'back-end'!G49</f>
         <v/>
       </c>
-      <c r="G49">
+      <c r="F49">
         <f>'back-end'!H49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>'back-end'!A50</f>
         <v>49</v>
@@ -2242,20 +2099,16 @@
         <f>'back-end'!D50&amp;'back-end'!E50</f>
         <v/>
       </c>
-      <c r="E50">
-        <f>'back-end'!F50</f>
-        <v>0</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="E50" t="str">
         <f>'back-end'!F50 &amp; 'back-end'!G50</f>
         <v/>
       </c>
-      <c r="G50">
+      <c r="F50">
         <f>'back-end'!H50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>'back-end'!A51</f>
         <v>50</v>
@@ -2272,15 +2125,11 @@
         <f>'back-end'!D51&amp;'back-end'!E51</f>
         <v/>
       </c>
-      <c r="E51">
-        <f>'back-end'!F51</f>
-        <v>0</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="E51" t="str">
         <f>'back-end'!F51 &amp; 'back-end'!G51</f>
         <v/>
       </c>
-      <c r="G51">
+      <c r="F51">
         <f>'back-end'!H51</f>
         <v>0</v>
       </c>
